--- a/RW Downstream Impacts/Data/YearlyTonnage.xlsx
+++ b/RW Downstream Impacts/Data/YearlyTonnage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Illinois Research\RW for PP Cooling\Analysis\Downstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary\Desktop\SRG\RW Downstream Impacts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="47">
   <si>
     <t>BRANDON ROAD</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>$/Ton</t>
   </si>
 </sst>
 </file>
@@ -852,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236805856"/>
-        <c:axId val="236806944"/>
+        <c:axId val="596378304"/>
+        <c:axId val="596377760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236805856"/>
+        <c:axId val="596378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2014"/>
@@ -921,12 +924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236806944"/>
+        <c:crossAx val="596377760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236806944"/>
+        <c:axId val="596377760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236805856"/>
+        <c:crossAx val="596378304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,11 +1919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461018560"/>
-        <c:axId val="461019104"/>
+        <c:axId val="596376672"/>
+        <c:axId val="596373408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461018560"/>
+        <c:axId val="596376672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2014"/>
@@ -1985,12 +1988,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461019104"/>
+        <c:crossAx val="596373408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461019104"/>
+        <c:axId val="596373408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461018560"/>
+        <c:crossAx val="596376672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2932,11 +2935,11 @@
         </c:dLbls>
         <c:gapWidth val="45"/>
         <c:overlap val="100"/>
-        <c:axId val="461014752"/>
-        <c:axId val="461010400"/>
+        <c:axId val="596376128"/>
+        <c:axId val="596379392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="461014752"/>
+        <c:axId val="596376128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461010400"/>
+        <c:crossAx val="596379392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3031,7 +3034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461010400"/>
+        <c:axId val="596379392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461014752"/>
+        <c:crossAx val="596376128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4053,11 +4056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461020736"/>
-        <c:axId val="461019648"/>
+        <c:axId val="790601616"/>
+        <c:axId val="790607056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461020736"/>
+        <c:axId val="790601616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2014"/>
@@ -4122,12 +4125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461019648"/>
+        <c:crossAx val="790607056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461019648"/>
+        <c:axId val="790607056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461020736"/>
+        <c:crossAx val="790601616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5110,11 +5113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461012576"/>
-        <c:axId val="461017472"/>
+        <c:axId val="790609232"/>
+        <c:axId val="790596176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461012576"/>
+        <c:axId val="790609232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2014"/>
@@ -5179,12 +5182,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461017472"/>
+        <c:crossAx val="790596176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461017472"/>
+        <c:axId val="790596176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5240,7 +5243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461012576"/>
+        <c:crossAx val="790609232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7306,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75:O83"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13100,7 +13103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J37" workbookViewId="0">
+    <sheetView topLeftCell="B30" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -13113,10 +13116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13884,6 +13887,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <f>B38/SUM(B3:B11)</f>
+        <v>601.34905866007341</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:H41" si="4">C38/SUM(C3:C11)</f>
+        <v>609.27630155113877</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>624.95116448345823</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>644.09384506521951</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>628.82787258889982</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13891,10 +13919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14665,6 +14693,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <f>B38/SUM(B3:B11)</f>
+        <v>675.37135418327568</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:F41" si="4">C38/SUM(C3:C11)</f>
+        <v>683.30406452535931</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>721.98099576302127</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>747.81361978502389</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>747.90695737852491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14672,10 +14725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15446,6 +15499,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <f>B38/SUM(B3:B11)</f>
+        <v>550.21693405424355</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:F41" si="4">C38/SUM(C3:C11)</f>
+        <v>548.90858324561407</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>566.60197454509432</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>563.60138177625834</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>570.36333149263942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
